--- a/data/trans_bre/P08_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P08_1_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>11.29854573706178</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.898996300984308</v>
+        <v>5.898996300984313</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9530173410271546</v>
@@ -649,7 +649,7 @@
         <v>0.7289564843615729</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3552275416480832</v>
+        <v>0.3552275416480836</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.388168352152516</v>
+        <v>6.413666584887465</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.770203307745395</v>
+        <v>7.833036102740968</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.67703515242945</v>
+        <v>7.018691689796094</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.193172149492454</v>
+        <v>2.159244885222096</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5074008237320934</v>
+        <v>0.4975169933423438</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4209119838566884</v>
+        <v>0.4326608161406504</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3636681014160094</v>
+        <v>0.3875515671176155</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1151234587872314</v>
+        <v>0.1161390844498586</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.7707259728823</v>
+        <v>13.93681267132536</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.7791475302575</v>
+        <v>16.22415513527768</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.71798799845934</v>
+        <v>15.62724648265717</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.482606629151778</v>
+        <v>9.414628663818956</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.503728463304489</v>
+        <v>1.545714330775784</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.232103797493474</v>
+        <v>1.224652526621489</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.156842990066798</v>
+        <v>1.161220184269752</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6677912105997164</v>
+        <v>0.6447186944960813</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.5894224894190793</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.9200196396760393</v>
+        <v>0.9200196396760391</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.943849248953525</v>
+        <v>6.680797494214011</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.264522155547932</v>
+        <v>5.046646721330822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.066847404698005</v>
+        <v>5.237955254171458</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.297583308260809</v>
+        <v>7.617662513597515</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5490168146858138</v>
+        <v>0.5181551916931956</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2413348957198141</v>
+        <v>0.3031812887858996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2949433866938152</v>
+        <v>0.3202188166508677</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5689021786067003</v>
+        <v>0.5996356702171367</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.69902956980791</v>
+        <v>13.42867888751314</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>11.70420267186523</v>
+        <v>12.25436570326309</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.15582568627665</v>
+        <v>12.42185483695987</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.09898560844106</v>
+        <v>13.00829703137529</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.424810273553203</v>
+        <v>1.377962820086936</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8043343314472567</v>
+        <v>0.8686065027295691</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9025273195610009</v>
+        <v>0.9503881105599231</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.363979293119709</v>
+        <v>1.389674106578118</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>7.954952600001833</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.067257264880536</v>
+        <v>4.067257264880531</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9995853195883899</v>
@@ -849,7 +849,7 @@
         <v>0.6189310066455946</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2387596336674785</v>
+        <v>0.2387596336674782</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>8.044002918538087</v>
+        <v>7.828825947926984</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.646029334179463</v>
+        <v>7.29212207753323</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.042229840647081</v>
+        <v>4.02847027578238</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3191678605251071</v>
+        <v>0.3079511500321421</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5798815127777549</v>
+        <v>0.5459541125574909</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5265769889757254</v>
+        <v>0.5249683186202095</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2631262767878503</v>
+        <v>0.2738534027287012</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.01672422470024407</v>
+        <v>0.01553844648357901</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.15540344303868</v>
+        <v>16.5360564041004</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.87021423123571</v>
+        <v>15.60339762841344</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.45647557278793</v>
+        <v>11.63419134292698</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.876207462558593</v>
+        <v>7.563695265439472</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.637734413442604</v>
+        <v>1.653757590048222</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.519570569274302</v>
+        <v>1.499873465294697</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.154926172845045</v>
+        <v>1.036826760113385</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5328135182570222</v>
+        <v>0.5087608621824274</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>7.964462606767037</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9.403361943453598</v>
+        <v>9.4033619434536</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.866052802609755</v>
@@ -949,7 +949,7 @@
         <v>0.6362838742555907</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.658882430893435</v>
+        <v>0.6588824308934353</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.015154392877007</v>
+        <v>6.233424982836264</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.453320168760136</v>
+        <v>7.485214047358644</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.74880505820442</v>
+        <v>4.650160682021658</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.519130753482422</v>
+        <v>6.297486681329431</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5037989998899648</v>
+        <v>0.5180823620943732</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4311209199663161</v>
+        <v>0.4443912447321093</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3221727688420841</v>
+        <v>0.3278015057260296</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4139527271877617</v>
+        <v>0.369359060910347</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.47973388758815</v>
+        <v>12.38321675297636</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.88270925336552</v>
+        <v>14.88506504747637</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.47997890290984</v>
+        <v>11.43041151559347</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.54432733404188</v>
+        <v>12.56400697233999</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.34524111232236</v>
+        <v>1.319014256843798</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.138807715035713</v>
+        <v>1.149531227354686</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.004901406944569</v>
+        <v>1.027907305122919</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9818369496903115</v>
+        <v>0.9816671096206443</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.454977718202354</v>
+        <v>8.699633004329074</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.778889107245542</v>
+        <v>8.771552860511871</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.981137915227718</v>
+        <v>6.875939629786076</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.064148409729053</v>
+        <v>6.120692472240576</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7140511160332894</v>
+        <v>0.7291456214269344</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5582583041342408</v>
+        <v>0.5551900338332161</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4717381290057393</v>
+        <v>0.4661929272982893</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3957626711784354</v>
+        <v>0.4010159451206592</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.99556631499822</v>
+        <v>12.00540310211555</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.55410013142366</v>
+        <v>12.68037491119217</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.71222506829525</v>
+        <v>10.51841050656646</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.229809696975993</v>
+        <v>9.466158216231509</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.162737017183593</v>
+        <v>1.159775488653381</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9057804336141309</v>
+        <v>0.9214571311293505</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8330669108539976</v>
+        <v>0.8003065173793782</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6804820341796108</v>
+        <v>0.7004532451552054</v>
       </c>
     </row>
     <row r="19">
